--- a/published-data/fonds-solidarite/fds-2022-05-31/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-31/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -3919,13 +3919,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>105828</v>
+        <v>105831</v>
       </c>
       <c r="D69" t="n">
         <v>22855</v>
       </c>
       <c r="E69" t="n">
-        <v>186643959</v>
+        <v>186651687</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -20596,13 +20596,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>71271</v>
+        <v>71273</v>
       </c>
       <c r="D396" t="n">
         <v>12436</v>
       </c>
       <c r="E396" t="n">
-        <v>110302626</v>
+        <v>110303186</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -22075,13 +22075,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>70536</v>
+        <v>70537</v>
       </c>
       <c r="D425" t="n">
         <v>13142</v>
       </c>
       <c r="E425" t="n">
-        <v>343514088</v>
+        <v>343712541</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
@@ -24115,13 +24115,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>34719</v>
+        <v>34720</v>
       </c>
       <c r="D465" t="n">
         <v>6013</v>
       </c>
       <c r="E465" t="n">
-        <v>152625095</v>
+        <v>152635095</v>
       </c>
       <c r="F465" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>73756</v>
+        <v>73757</v>
       </c>
       <c r="D472" t="n">
         <v>11997</v>
       </c>
       <c r="E472" t="n">
-        <v>387088234</v>
+        <v>387133975</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -24574,13 +24574,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>74991</v>
+        <v>74992</v>
       </c>
       <c r="D474" t="n">
         <v>11549</v>
       </c>
       <c r="E474" t="n">
-        <v>435132289</v>
+        <v>435318545</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416718</v>
+        <v>416731</v>
       </c>
       <c r="D477" t="n">
         <v>70499</v>
       </c>
       <c r="E477" t="n">
-        <v>725132137</v>
+        <v>725169838</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292041</v>
+        <v>292061</v>
       </c>
       <c r="D484" t="n">
         <v>42565</v>
       </c>
       <c r="E484" t="n">
-        <v>1769873779</v>
+        <v>1770130136</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230638</v>
+        <v>230646</v>
       </c>
       <c r="D487" t="n">
         <v>33849</v>
       </c>
       <c r="E487" t="n">
-        <v>1819528910</v>
+        <v>1819586554</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25951,13 +25951,13 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>38088</v>
+        <v>38089</v>
       </c>
       <c r="D501" t="n">
         <v>6578</v>
       </c>
       <c r="E501" t="n">
-        <v>177066943</v>
+        <v>177109909</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184256</v>
+        <v>184258</v>
       </c>
       <c r="D505" t="n">
         <v>27737</v>
       </c>
       <c r="E505" t="n">
-        <v>332723639</v>
+        <v>332729119</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>56099</v>
+        <v>56101</v>
       </c>
       <c r="D520" t="n">
         <v>8769</v>
       </c>
       <c r="E520" t="n">
-        <v>253683580</v>
+        <v>253759835</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -28195,13 +28195,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>25080</v>
+        <v>25081</v>
       </c>
       <c r="D545" t="n">
         <v>6170</v>
       </c>
       <c r="E545" t="n">
-        <v>92483431</v>
+        <v>92485718</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -28297,13 +28297,13 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>7440</v>
+        <v>7441</v>
       </c>
       <c r="D547" t="n">
         <v>1667</v>
       </c>
       <c r="E547" t="n">
-        <v>37684204</v>
+        <v>37756696</v>
       </c>
       <c r="F547" t="inlineStr">
         <is>
@@ -28552,13 +28552,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>39931</v>
+        <v>39933</v>
       </c>
       <c r="D552" t="n">
         <v>7155</v>
       </c>
       <c r="E552" t="n">
-        <v>60378307</v>
+        <v>60385247</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -34009,13 +34009,13 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>163434</v>
+        <v>163436</v>
       </c>
       <c r="D659" t="n">
         <v>36203</v>
       </c>
       <c r="E659" t="n">
-        <v>278426721</v>
+        <v>278429721</v>
       </c>
       <c r="F659" t="inlineStr">
         <is>
